--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73B95B-2451-495B-9F8D-91D6D61E401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F278CC2-F475-46F4-A164-7264F33C3F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -217,18 +217,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_Solo1</t>
-  </si>
-  <si>
-    <t>Unit_Aoe1</t>
-  </si>
-  <si>
-    <t>Unit_Line1</t>
-  </si>
-  <si>
-    <t>Unit_Circle1</t>
-  </si>
-  <si>
     <t>(list#sep=;),string#ref=ActionCfg_ref_group</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -281,6 +269,23 @@
   <si>
     <t>AICfgId(空着表示使用召唤者ai)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerBow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerBow2</t>
+  </si>
+  <si>
+    <t>Unit_TowerBow3</t>
+  </si>
+  <si>
+    <t>Unit_TowerCannon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerCannon2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +451,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -477,6 +482,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -484,7 +492,18 @@
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -755,25 +774,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="15" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,11 +811,11 @@
         <v>30</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>33</v>
@@ -824,7 +843,7 @@
       <c r="AB1"/>
       <c r="AC1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -835,10 +854,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -867,7 +886,7 @@
       <c r="AB2"/>
       <c r="AC2"/>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -886,11 +905,11 @@
         <v>31</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>34</v>
@@ -918,7 +937,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -953,7 +972,7 @@
       <c r="AB4"/>
       <c r="AC4"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -972,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
@@ -1010,7 +1029,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1025,11 +1044,11 @@
         <v>25</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
-        <v>35</v>
+      <c r="G6" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -1043,7 +1062,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1058,11 +1077,11 @@
         <v>26</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="8" t="s">
-        <v>36</v>
+      <c r="G7" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
@@ -1076,7 +1095,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1091,11 +1110,11 @@
         <v>27</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
+      <c r="G8" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" s="8">
         <v>0</v>
@@ -1106,7 +1125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1121,11 +1140,11 @@
         <v>28</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
+      <c r="G9" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -1136,7 +1155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1151,11 +1170,11 @@
         <v>29</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
-        <v>35</v>
+      <c r="G10" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1163,6 +1182,9 @@
       <c r="L10" s="8">
         <v>50</v>
       </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1172,6 +1194,9 @@
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G6:G11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{513D373D-7583-4056-B5C2-7B658F464E81}"/>
   </hyperlinks>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F278CC2-F475-46F4-A164-7264F33C3F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639FA4B-21D4-45BE-8ED2-656E4BBD3361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>持续时间(s)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>nodeName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -286,6 +282,51 @@
   </si>
   <si>
     <t>Unit_TowerCannon2</t>
+  </si>
+  <si>
+    <r>
+      <t>CallActor_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MiFeng3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜蜂3召唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_MiFeng3_Actor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Actor_HpMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(s)(-1表示永久)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,7 +492,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -464,6 +505,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,9 +526,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -774,25 +817,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="15" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="16" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,27 +852,29 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="O1" s="12"/>
-      <c r="P1"/>
+      <c r="P1" s="13"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -842,8 +888,9 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD1"/>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,25 +900,25 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -885,8 +932,9 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
-    </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -902,27 +950,29 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="O3" s="15"/>
-      <c r="P3"/>
+      <c r="P3" s="16"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -936,8 +986,9 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-    </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD3"/>
+    </row>
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -957,7 +1008,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4"/>
+      <c r="P4" s="4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -971,8 +1022,9 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD4"/>
+    </row>
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -988,33 +1040,35 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="M5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1028,10 +1082,11 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1041,30 +1096,33 @@
         <v>CallActor_1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
         <v>50</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
-        <v>50</v>
-      </c>
-      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1074,30 +1132,33 @@
         <v>CallActor_2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="G7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="8">
         <v>0</v>
       </c>
-      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
         <v>50</v>
       </c>
-      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1107,27 +1168,30 @@
         <v>CallActor_3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1137,27 +1201,30 @@
         <v>CallActor_4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="G9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1167,38 +1234,74 @@
         <v>CallActor_5</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="G10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G11" s="16"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G6:G11">
+  <conditionalFormatting sqref="G6:G11 H6:H15">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{513D373D-7583-4056-B5C2-7B658F464E81}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{513D373D-7583-4056-B5C2-7B658F464E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639FA4B-21D4-45BE-8ED2-656E4BBD3361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A1B38-E694-475D-B44A-594D0C48F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>relateForward</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>offSetInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -326,6 +322,18 @@
   </si>
   <si>
     <t>callCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepHorizontal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保持水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateRotation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -508,6 +516,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,8 +536,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -817,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -833,10 +841,10 @@
     <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="16" width="13.77734375" customWidth="1"/>
+    <col min="10" max="17" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,30 +860,30 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="15"/>
       <c r="K1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
-      <c r="Q1"/>
+      <c r="N1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -889,8 +897,9 @@
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE1"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -902,10 +911,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -917,9 +926,11 @@
         <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2"/>
+        <v>63</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -933,8 +944,9 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -950,30 +962,30 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="18"/>
       <c r="K3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3"/>
+      <c r="N3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -987,8 +999,9 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
-    </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE3"/>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1022,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4"/>
+      <c r="Q4" s="4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -1023,8 +1036,9 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
-    </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1040,36 +1054,38 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5"/>
+      <c r="Q5" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -1083,10 +1099,11 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1096,17 +1113,17 @@
         <v>CallActor_1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -1119,10 +1136,11 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1132,17 +1150,17 @@
         <v>CallActor_2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -1155,10 +1173,11 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1168,17 +1187,17 @@
         <v>CallActor_3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -1189,9 +1208,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1201,17 +1220,17 @@
         <v>CallActor_4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="10">
         <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -1222,9 +1241,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1234,17 +1253,17 @@
         <v>CallActor_5</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1253,46 +1272,46 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M12" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
   </mergeCells>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A1B38-E694-475D-B44A-594D0C48F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E27FBC-5924-4D84-9DF5-E2715A93BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -169,10 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CallActor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤Actor1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -305,10 +290,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffAdd_Monster_Actor_HpMax</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间(s)(-1表示永久)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -334,6 +315,141 @@
   </si>
   <si>
     <t>relateRotation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Actor_HpMax;EffectCreate_Monster_Born</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75,0,0.75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_ZhiZhu2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛2召唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_ZhiZhu2_Actor</t>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Actor_ZhiZhu_HpMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_Skull</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_1</t>
+  </si>
+  <si>
+    <t>CallActor_2</t>
+  </si>
+  <si>
+    <t>CallActor_3</t>
+  </si>
+  <si>
+    <t>CallActor_4</t>
+  </si>
+  <si>
+    <t>CallActor_5</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Skull_Actor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_Monster1</t>
+  </si>
+  <si>
+    <t>BuffAdd_CannotBeTargeted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_Skull3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅3召唤墓碑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅1召唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_Tombstone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓碑召唤骷髅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Tombstone_Skull</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_Skull1</t>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Tombstone;EffectCreate_Monster_Born_Tombstone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_Imp3_Boss1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_Imp3_Boss2</t>
+  </si>
+  <si>
+    <t>CallActor_Imp3_Boss3</t>
+  </si>
+  <si>
+    <t>小恶魔3召唤boss1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔3召唤boss2</t>
+  </si>
+  <si>
+    <t>小恶魔3召唤boss3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Skull3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_FireSpirit3</t>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_Monster_Born_Tombstone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;BuffAdd_Monster_Actor_Imp3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_Tombstone1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +616,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -518,6 +634,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,7 +662,27 @@
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -825,65 +964,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="17" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="56.875" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="P1"/>
+      <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -896,10 +1037,8 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -908,29 +1047,29 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -943,49 +1082,47 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -998,20 +1135,18 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1021,8 +1156,8 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -1035,57 +1170,55 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -1098,229 +1231,416 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6:D10" si="0">B6&amp;"_"&amp;C6</f>
-        <v>CallActor_1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="G6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
+        <v>50</v>
+      </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="8">
-        <v>50</v>
-      </c>
+      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>CallActor_2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="10">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
+        <v>50</v>
+      </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="8">
-        <v>50</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>CallActor_3</v>
-      </c>
-      <c r="E8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="10">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="8">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>CallActor_4</v>
-      </c>
-      <c r="E9" s="7" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="10">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="8">
+      <c r="H10" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>CallActor_5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="G12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H15" s="10"/>
+      <c r="M12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G6:G11 H6:H15">
+  <conditionalFormatting sqref="E6:E11 F6:F19">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E19">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{513D373D-7583-4056-B5C2-7B658F464E81}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{513D373D-7583-4056-B5C2-7B658F464E81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E27FBC-5924-4D84-9DF5-E2715A93BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39246B7-546A-4F4A-9841-CBBC855A5279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,10 +367,6 @@
     <t>TowerDefense_Monster1</t>
   </si>
   <si>
-    <t>BuffAdd_CannotBeTargeted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CallActor_Skull3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -450,6 +446,10 @@
   </si>
   <si>
     <t>Unit_Monster_Tombstone1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_CannotBeTargeted;BuffAdd_CallActor_Skull1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +967,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1443,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>74</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>75</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1487,25 +1487,25 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>75</v>
       </c>
       <c r="K15" s="8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>75</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>75</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>75</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>75</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallActor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39246B7-546A-4F4A-9841-CBBC855A5279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A8D4D-4B2C-4A39-A1FC-88D7D0B584D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -248,23 +248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_TowerBow1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TowerBow2</t>
-  </si>
-  <si>
-    <t>Unit_TowerBow3</t>
-  </si>
-  <si>
-    <t>Unit_TowerCannon1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TowerCannon2</t>
-  </si>
-  <si>
     <r>
       <t>CallActor_</t>
     </r>
@@ -449,7 +432,77 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffAdd_CannotBeTargeted;BuffAdd_CallActor_Skull1</t>
+    <t>BuffAdd_CannotBeTargeted_1s;BuffAdd_CallActor_Skull1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Tower_XBow1</t>
+  </si>
+  <si>
+    <t>CallActorPositionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callActorPositionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callActor生成位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByParent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callActorTeamFlagType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActorTeamFlagType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callActor阵营类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByParentTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActorUnitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callActorUnitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>callActor Unit类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallActor_NormalAttack_Tower_Rocket1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭塔普通攻击命中后生成对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_NormalAttack_Tower_Rocket1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_NormalAttack_Tower_Rocket1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +561,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -616,7 +676,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -655,6 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -662,7 +723,17 @@
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -964,28 +1035,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="56.875" customWidth="1"/>
+    <col min="9" max="9" width="39.375" customWidth="1"/>
     <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="15" width="13.75" customWidth="1"/>
+    <col min="11" max="18" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>35</v>
@@ -1017,15 +1092,21 @@
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -1037,8 +1118,11 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1056,21 +1140,21 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
+      <c r="Q2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -1082,8 +1166,11 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>34</v>
@@ -1115,15 +1202,21 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -1135,8 +1228,11 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1156,9 +1252,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -1170,8 +1266,11 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1188,7 +1287,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>39</v>
@@ -1203,23 +1302,29 @@
         <v>46</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -1231,17 +1336,20 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="10" t="s">
-        <v>47</v>
+      <c r="E6" t="s">
+        <v>91</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -1257,21 +1365,30 @@
       <c r="K6" s="8">
         <v>50</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
+      <c r="E7" t="s">
+        <v>91</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -1287,21 +1404,30 @@
       <c r="K7" s="8">
         <v>50</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
+      <c r="E8" t="s">
+        <v>91</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -1317,17 +1443,26 @@
       <c r="K8" s="8">
         <v>50</v>
       </c>
+      <c r="L8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
+      <c r="E9" t="s">
+        <v>91</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -1343,17 +1478,26 @@
       <c r="K9" s="8">
         <v>50</v>
       </c>
+      <c r="L9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="10" t="s">
-        <v>51</v>
+      <c r="E10" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -1369,20 +1513,29 @@
       <c r="K10" s="8">
         <v>50</v>
       </c>
+      <c r="L10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -1394,27 +1547,36 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K12" s="8">
         <v>-1</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>63</v>
+      <c r="L12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1426,27 +1588,36 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K13" s="8">
         <v>-1</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
+      <c r="C14" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1458,24 +1629,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="8">
         <v>-1</v>
       </c>
+      <c r="L14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1487,25 +1667,34 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K15" s="8">
         <v>10</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="L15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
@@ -1517,24 +1706,33 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K16" s="8">
         <v>-1</v>
       </c>
+      <c r="L16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -1546,27 +1744,36 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K17" s="8">
         <v>-1</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>63</v>
+      <c r="L17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -1578,27 +1785,36 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K18" s="8">
         <v>-1</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>63</v>
+      <c r="L18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -1610,34 +1826,81 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K19" s="8">
         <v>-1</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>63</v>
+      <c r="L19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E6:E11 F6:F19">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="E6:E10">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 F6:F19 F21">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{513D373D-7583-4056-B5C2-7B658F464E81}"/>
